--- a/Lab02/document/cafe.xlsx
+++ b/Lab02/document/cafe.xlsx
@@ -15,75 +15,408 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+  <si>
+    <t xml:space="preserve"> &lt;| Trước     Sau |&gt; </t>
+  </si>
+  <si>
+    <t>Quy 4-2016</t>
+  </si>
+  <si>
+    <t>Quý 1-2017</t>
+  </si>
+  <si>
+    <t>Quý 2-2017</t>
+  </si>
   <si>
     <t>Quý 3-2017</t>
   </si>
   <si>
-    <t>12,131,963,698,383</t>
-  </si>
-  <si>
-    <t>11,461,677,471</t>
-  </si>
-  <si>
-    <t>12,120,502,020,912</t>
-  </si>
-  <si>
-    <t>6,633,808,703,800</t>
-  </si>
-  <si>
-    <t>5,486,693,317,112</t>
-  </si>
-  <si>
-    <t>190,257,216,242</t>
-  </si>
-  <si>
-    <t>19,314,174,913</t>
-  </si>
-  <si>
-    <t>8,555,583,980</t>
-  </si>
-  <si>
-    <t>14,061,854,211</t>
-  </si>
-  <si>
-    <t>2,318,536,685,442</t>
-  </si>
-  <si>
-    <t>240,213,522,091</t>
-  </si>
-  <si>
-    <t>3,112,948,005,119</t>
-  </si>
-  <si>
-    <t>146,116,534,447</t>
-  </si>
-  <si>
-    <t>82,601,647,493</t>
-  </si>
-  <si>
-    <t>63,514,886,954</t>
-  </si>
-  <si>
-    <t>3,176,462,892,073</t>
-  </si>
-  <si>
-    <t>504,757,180,169</t>
-  </si>
-  <si>
-    <t>-11,339,489,858</t>
-  </si>
-  <si>
-    <t>2,683,045,201,762</t>
-  </si>
-  <si>
-    <t>-18,268,537,046</t>
-  </si>
-  <si>
-    <t>2,701,313,738,808</t>
-  </si>
-  <si>
-    <t>1,677</t>
+    <t>Tăng trưởng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                1. Doanh thu bán hàng và cung cấp dịch vụ
+            </t>
+  </si>
+  <si>
+    <t>11,838,267,527,921</t>
+  </si>
+  <si>
+    <t>12,074,425,433,110</t>
+  </si>
+  <si>
+    <t>13,386,878,196,373</t>
+  </si>
+  <si>
+    <t>13,308,557,627,263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                2. Các khoản giảm trừ doanh thu
+            </t>
+  </si>
+  <si>
+    <t>30,656,778,415</t>
+  </si>
+  <si>
+    <t>25,056,740,672</t>
+  </si>
+  <si>
+    <t>38,616,981,182</t>
+  </si>
+  <si>
+    <t>15,479,806,923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                3. Doanh thu thuần về bán hàng và cung cấp dịch vụ
+            </t>
+  </si>
+  <si>
+    <t>11,807,610,749,506</t>
+  </si>
+  <si>
+    <t>12,049,368,692,438</t>
+  </si>
+  <si>
+    <t>13,348,261,215,191</t>
+  </si>
+  <si>
+    <t>13,293,077,820,340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                4. Giá vốn hàng bán
+            </t>
+  </si>
+  <si>
+    <t>6,327,315,699,575</t>
+  </si>
+  <si>
+    <t>6,230,237,376,368</t>
+  </si>
+  <si>
+    <t>6,807,419,327,845</t>
+  </si>
+  <si>
+    <t>7,022,778,495,998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                5. Lợi nhuận gộp về bán hàng và cung cấp dịch vụ
+            </t>
+  </si>
+  <si>
+    <t>5,480,295,049,931</t>
+  </si>
+  <si>
+    <t>5,819,131,316,070</t>
+  </si>
+  <si>
+    <t>6,540,841,887,346</t>
+  </si>
+  <si>
+    <t>6,270,299,324,342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                6. Doanh thu hoạt động tài chính
+            </t>
+  </si>
+  <si>
+    <t>194,133,215,944</t>
+  </si>
+  <si>
+    <t>199,756,552,892</t>
+  </si>
+  <si>
+    <t>204,884,142,516</t>
+  </si>
+  <si>
+    <t>213,488,861,058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                7. Chi phí tài chính
+            </t>
+  </si>
+  <si>
+    <t>33,702,023,732</t>
+  </si>
+  <si>
+    <t>27,661,528,509</t>
+  </si>
+  <si>
+    <t>29,056,344,259</t>
+  </si>
+  <si>
+    <t>17,833,795,652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                  - Trong đó: Chi phí lãi vay
+            </t>
+  </si>
+  <si>
+    <t>19,574,144,919</t>
+  </si>
+  <si>
+    <t>13,393,474,209</t>
+  </si>
+  <si>
+    <t>4,023,632,084</t>
+  </si>
+  <si>
+    <t>7,006,245,652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                8. Phần lãi lỗ hoặc lỗ trong công ty liên doanh, liên kết
+            </t>
+  </si>
+  <si>
+    <t>-6,270,069,878</t>
+  </si>
+  <si>
+    <t>16,609,907,192</t>
+  </si>
+  <si>
+    <t>18,980,009,176</t>
+  </si>
+  <si>
+    <t>8,393,748,492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                9. Chi phí bán hàng
+            </t>
+  </si>
+  <si>
+    <t>3,192,490,113,496</t>
+  </si>
+  <si>
+    <t>2,303,389,750,323</t>
+  </si>
+  <si>
+    <t>3,052,625,245,294</t>
+  </si>
+  <si>
+    <t>2,980,515,590,409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                10. Chi phí quản lý doanh nghiệp
+            </t>
+  </si>
+  <si>
+    <t>296,402,762,521</t>
+  </si>
+  <si>
+    <t>234,141,221,196</t>
+  </si>
+  <si>
+    <t>239,797,745,989</t>
+  </si>
+  <si>
+    <t>265,435,950,848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                11. Lợi nhuận thuần từ hoạt động kinh doanh
+            </t>
+  </si>
+  <si>
+    <t>2,145,563,296,248</t>
+  </si>
+  <si>
+    <t>3,470,305,276,126</t>
+  </si>
+  <si>
+    <t>3,443,226,703,496</t>
+  </si>
+  <si>
+    <t>3,228,396,596,983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                12. Thu nhập khác
+            </t>
+  </si>
+  <si>
+    <t>94,658,510,605</t>
+  </si>
+  <si>
+    <t>30,423,547,544</t>
+  </si>
+  <si>
+    <t>56,563,334,106</t>
+  </si>
+  <si>
+    <t>65,331,706,324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                13. Chi phí khác
+            </t>
+  </si>
+  <si>
+    <t>36,051,875,486</t>
+  </si>
+  <si>
+    <t>24,641,159,915</t>
+  </si>
+  <si>
+    <t>55,767,691,611</t>
+  </si>
+  <si>
+    <t>70,713,968,872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                14. Lợi nhuận khác
+            </t>
+  </si>
+  <si>
+    <t>58,606,635,119</t>
+  </si>
+  <si>
+    <t>5,782,387,629</t>
+  </si>
+  <si>
+    <t>795,642,495</t>
+  </si>
+  <si>
+    <t>-5,382,262,548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                15. Tổng lợi nhuận kế toán trước thuế
+            </t>
+  </si>
+  <si>
+    <t>2,204,169,931,367</t>
+  </si>
+  <si>
+    <t>3,476,087,663,755</t>
+  </si>
+  <si>
+    <t>3,444,022,345,991</t>
+  </si>
+  <si>
+    <t>3,223,014,334,435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                16. Chi phí thuế TNDN hiện hành
+            </t>
+  </si>
+  <si>
+    <t>377,978,824,943</t>
+  </si>
+  <si>
+    <t>528,294,248,598</t>
+  </si>
+  <si>
+    <t>558,115,578,219</t>
+  </si>
+  <si>
+    <t>528,097,208,664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                17. Chi phí thuế TNDN hoãn lại
+            </t>
+  </si>
+  <si>
+    <t>-2,096,140,601</t>
+  </si>
+  <si>
+    <t>12,787,981,199</t>
+  </si>
+  <si>
+    <t>-30,881,221,922</t>
+  </si>
+  <si>
+    <t>-2,150,517,050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                18. Lợi nhuận sau thuế thu nhập doanh nghiệp
+            </t>
+  </si>
+  <si>
+    <t>1,828,287,247,025</t>
+  </si>
+  <si>
+    <t>2,935,005,433,958</t>
+  </si>
+  <si>
+    <t>2,916,787,989,694</t>
+  </si>
+  <si>
+    <t>2,697,067,642,821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                18.1 Lợi ích của cổ đông thiểu số
+            </t>
+  </si>
+  <si>
+    <t>-676,593,137</t>
+  </si>
+  <si>
+    <t>-62,830,946</t>
+  </si>
+  <si>
+    <t>-5,292,414,236</t>
+  </si>
+  <si>
+    <t>3,163,882,771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                18.2  Lợi nhuận sau thuế của công ty mẹ
+            </t>
+  </si>
+  <si>
+    <t>1,828,963,840,162</t>
+  </si>
+  <si>
+    <t>2,935,068,264,904</t>
+  </si>
+  <si>
+    <t>2,922,080,403,930</t>
+  </si>
+  <si>
+    <t>2,693,903,760,050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                19. Lãi cơ bản trên cổ phiếu
+            </t>
+  </si>
+  <si>
+    <t>1,136</t>
+  </si>
+  <si>
+    <t>1,799</t>
+  </si>
+  <si>
+    <t>1,818</t>
+  </si>
+  <si>
+    <t>1,699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                20. Lãi suy giảm trên cổ phiếu
+            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                21. Cổ tức
+            </t>
   </si>
 </sst>
 </file>
@@ -430,194 +763,629 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s"/>
     </row>
     <row r="3">
       <c r="A3" t="s"/>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s"/>
     </row>
     <row r="5">
       <c r="A5" t="s"/>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="s"/>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="s"/>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="s"/>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="s"/>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="s"/>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
+      <c r="F15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="s"/>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
+      <c r="F17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="s"/>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
+      <c r="F19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="s"/>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="s"/>
+      <c r="E21" t="s"/>
+      <c r="F21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="s"/>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s"/>
+      <c r="F23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>12</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="s"/>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="s"/>
+      <c r="E25" t="s"/>
+      <c r="F25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="s"/>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="s"/>
+      <c r="E27" t="s"/>
+      <c r="F27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="s"/>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="s"/>
+      <c r="E29" t="s"/>
+      <c r="F29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>15</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="s"/>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="s"/>
+      <c r="E31" t="s"/>
+      <c r="F31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>16</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="s"/>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="s"/>
+      <c r="E33" t="s"/>
+      <c r="F33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>17</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="s"/>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="s"/>
+      <c r="E35" t="s"/>
+      <c r="F35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>18</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="s"/>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="s"/>
+      <c r="E37" t="s"/>
+      <c r="F37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>19</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="s"/>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="s"/>
+      <c r="E39" t="s"/>
+      <c r="F39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>20</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="s"/>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="s"/>
+      <c r="E41" t="s"/>
+      <c r="F41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>21</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="s"/>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="s"/>
+      <c r="E43" t="s"/>
+      <c r="F43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>22</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="s"/>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="s"/>
+      <c r="E45" t="s"/>
+      <c r="F45" t="s"/>
     </row>
     <row r="46">
-      <c r="A46" t="s"/>
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="s"/>
+      <c r="E46" t="s"/>
+      <c r="F46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="s"/>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="s"/>
+      <c r="E47" t="s"/>
+      <c r="F47" t="s"/>
     </row>
     <row r="48">
-      <c r="A48" t="s"/>
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="s"/>
+      <c r="E48" t="s"/>
+      <c r="F48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="s"/>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="s"/>
+      <c r="E49" t="s"/>
+      <c r="F49" t="s"/>
     </row>
   </sheetData>
 </worksheet>
